--- a/medicine/Handicap/Speech_Synthesis_Markup_Language/Speech_Synthesis_Markup_Language.xlsx
+++ b/medicine/Handicap/Speech_Synthesis_Markup_Language/Speech_Synthesis_Markup_Language.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Speech Synthesis Markup Language (SSML) est un langage de balisage basé sur XML destiné aux applications de synthèse vocale. Il s'agit d'une recommandation du groupe de travail consacré au navigateur vocal du World Wide Web Consortium (W3C).
